--- a/src/main/webapp/WEB-INF/excel-templates/Result_Update_CSHT.xlsx
+++ b/src/main/webapp/WEB-INF/excel-templates/Result_Update_CSHT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Media_Soft\GIT\RIMS\src\main\webapp\WEB-INF\excel-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\RIMS\source\RIMS\src\main\webapp\WEB-INF\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{81CF5978-86BC-4B25-B006-8DD623AEB8E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A3A528BE-49A1-41C8-9519-5D0AABF1D873}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
   <si>
     <t>Thông tin hạ tầng</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Đơn vị quản lý</t>
+  </si>
+  <si>
+    <t>Mã quy hoạch vị trí</t>
   </si>
 </sst>
 </file>
@@ -357,24 +360,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +400,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -437,7 +440,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -477,7 +480,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -517,7 +520,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -557,7 +560,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -597,7 +600,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -637,7 +640,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -677,7 +680,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -717,7 +720,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -757,7 +760,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -797,7 +800,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -837,7 +840,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -877,7 +880,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -917,7 +920,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -957,7 +960,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -997,7 +1000,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1037,7 +1040,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1077,7 +1080,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1117,7 +1120,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1157,7 +1160,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1197,7 +1200,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1237,7 +1240,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1277,7 +1280,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1317,7 +1320,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1357,7 +1360,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1397,7 +1400,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1437,7 +1440,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1477,7 +1480,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1517,7 +1520,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1557,7 +1560,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1597,7 +1600,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1637,7 +1640,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1677,7 +1680,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1717,7 +1720,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1757,7 +1760,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1797,7 +1800,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1837,7 +1840,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1877,7 +1880,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1917,7 +1920,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1957,7 +1960,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1997,7 +2000,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2037,7 +2040,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2077,7 +2080,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2117,7 +2120,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2157,7 +2160,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2197,7 +2200,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2237,7 +2240,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2277,7 +2280,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2317,7 +2320,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2357,7 +2360,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2397,7 +2400,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2437,7 +2440,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2477,7 +2480,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2517,7 +2520,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2855,227 +2858,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="3" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="14"/>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="17"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
       <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="S2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3086,11 +3090,11 @@
         <v>1</v>
       </c>
       <c r="V2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="X2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3101,26 +3105,26 @@
         <v>1</v>
       </c>
       <c r="AA2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AE2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AG2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="AH2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3137,11 +3141,11 @@
         <v>1</v>
       </c>
       <c r="AM2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="12" t="s">
-        <v>1</v>
-      </c>
       <c r="AO2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3158,619 +3162,633 @@
         <v>1</v>
       </c>
       <c r="AT2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AV2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AW2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AX2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AY2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AY2" s="12" t="s">
+      <c r="AZ2" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="2" t="s">
+    <row r="3" spans="1:52" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="2" t="s">
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="4"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="8"/>
       <c r="AD4" s="6"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="4"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="4"/>
+      <c r="AL4" s="6"/>
       <c r="AM4" s="4"/>
-      <c r="AN4" s="6"/>
+      <c r="AN4" s="4"/>
       <c r="AO4" s="6"/>
       <c r="AP4" s="6"/>
       <c r="AQ4" s="6"/>
       <c r="AR4" s="6"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="8"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
       <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
     </row>
-    <row r="5" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="8"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="4"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="8"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="4"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="4"/>
+      <c r="AL5" s="6"/>
       <c r="AM5" s="4"/>
-      <c r="AN5" s="6"/>
+      <c r="AN5" s="4"/>
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="6"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="8"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
       <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
     </row>
-    <row r="6" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="8"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="4"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="8"/>
       <c r="AD6" s="6"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="4"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="4"/>
+      <c r="AL6" s="6"/>
       <c r="AM6" s="4"/>
-      <c r="AN6" s="6"/>
+      <c r="AN6" s="4"/>
       <c r="AO6" s="6"/>
       <c r="AP6" s="6"/>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="6"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="8"/>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6"/>
       <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
     </row>
-    <row r="7" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="8"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="4"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="8"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="4"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="4"/>
+      <c r="AL7" s="6"/>
       <c r="AM7" s="4"/>
-      <c r="AN7" s="6"/>
+      <c r="AN7" s="4"/>
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="6"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="8"/>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
       <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
     </row>
-    <row r="8" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="8"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="4"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="8"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="4"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
-      <c r="AL8" s="4"/>
+      <c r="AL8" s="6"/>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="6"/>
+      <c r="AN8" s="4"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="8"/>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6"/>
       <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
     </row>
-    <row r="9" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="8"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="4"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="8"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="4"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="4"/>
+      <c r="AL9" s="6"/>
       <c r="AM9" s="4"/>
-      <c r="AN9" s="6"/>
+      <c r="AN9" s="4"/>
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="8"/>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6"/>
       <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
     </row>
-    <row r="10" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="8"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="4"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="8"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="4"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="4"/>
+      <c r="AL10" s="6"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="6"/>
+      <c r="AN10" s="4"/>
       <c r="AO10" s="6"/>
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
       <c r="AR10" s="6"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="8"/>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6"/>
       <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
     </row>
-    <row r="11" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="4"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="8"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="4"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="4"/>
+      <c r="AL11" s="6"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="6"/>
+      <c r="AN11" s="4"/>
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="6"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="8"/>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6"/>
       <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
     </row>
-    <row r="12" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="8"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="4"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="8"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="4"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="4"/>
+      <c r="AL12" s="6"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="6"/>
+      <c r="AN12" s="4"/>
       <c r="AO12" s="6"/>
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="8"/>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
       <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="AA2:AA3"/>
+  <mergeCells count="33">
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:AY1"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AM2:AS2"/>
+    <mergeCell ref="B1:AZ1"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AB2:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
